--- a/Docs/Compatibility.xlsx
+++ b/Docs/Compatibility.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\users\blaze\Syncthing\Projekty\Polibuda\MediaTransCoder\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{337FEC86-71DF-4A9D-B7E5-4CDAFBB2C51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F15CD20-B241-4F6A-898E-DDD1EA781759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="15" uniqueCount="15">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="17" uniqueCount="16">
   <si>
     <t>Container</t>
   </si>
@@ -53,43 +53,46 @@
     <t>webm</t>
   </si>
   <si>
-    <t>wma</t>
-  </si>
-  <si>
     <t>wav</t>
   </si>
   <si>
-    <t>wmv</t>
-  </si>
-  <si>
     <t>3gp</t>
   </si>
   <si>
     <t>flv</t>
   </si>
   <si>
-    <t>mkv</t>
-  </si>
-  <si>
-    <t>mka</t>
-  </si>
-  <si>
     <t>ogg</t>
   </si>
   <si>
-    <t>vorbis, opus</t>
-  </si>
-  <si>
-    <t>vp8, vp9</t>
-  </si>
-  <si>
-    <t>mp3, wmav1, wmav2, ac3, eac3</t>
+    <t>libvorbis, libopus</t>
+  </si>
+  <si>
+    <t>libvorbis, mp3, aac, wmav1, wmav2, ac3, eac3, flac</t>
+  </si>
+  <si>
+    <t>matroska</t>
+  </si>
+  <si>
+    <t>avi</t>
+  </si>
+  <si>
+    <t>aac</t>
+  </si>
+  <si>
+    <t>mp3, aac</t>
+  </si>
+  <si>
+    <t>libvorbis, libopus, mp3, aac, wmav1, wmav2, ac3, eac3, flac, alac</t>
+  </si>
+  <si>
+    <t>libvorbis, libopus, flac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,11 +441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C11"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,69 +471,63 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
